--- a/DataScience/02_Pandas_2/TesteLoja.xlsx
+++ b/DataScience/02_Pandas_2/TesteLoja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1115,6 +1115,70 @@
         <v>72</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Loja G</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Loja G</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>51.55</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>360.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
